--- a/biology/Zoologie/Autour_huppé/Autour_huppé.xlsx
+++ b/biology/Zoologie/Autour_huppé/Autour_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Accipiter trivirgatus
 L'Autour huppé (Accipiter trivirgatus) est une espèce d'oiseau de la famille des Accipitridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Asie tropicale, du sous-continent indien, sur tout l'Insulinde et les îles de la mer de Chine méridionale. De Taïwan à Java.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autour huppé est un rapace diurne mesurant de 30 à 45 cm de hauteur et d'une envergure de 65 à 85 cm. Il pèse de 225 à 450 g.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fréquente les forêts dans les zones de plaines tropicales ou dans les régions subtropicales de collines et de montagnes. Il visite aussi parfois les parcelles en cours de régénération, les zones boisées qui bordent les villages, les terres cultivées et les jardins botaniques.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autour huppé est carnivore.
 Il mange des oiseaux, des lézards, des petits mammifères, des grenouilles et des gros insectes, sans doute dans cet ordre de préférence.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autour huppé construit un nid volumineux avec des morceaux de bois. Après qu'il l'ait utilisé pendant plusieurs années consécutive, ce nid peut atteindre 50 cm de diamètre et jusqu'à 30 cm de profondeur ; il est placé entre 9 et 13 mètres au-dessus du sol sur une branche bien feuillue. L'autour y pond 2 ou 3 œufs.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Autour_hupp%C3%A9</t>
+          <t>Autour_huppé</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des 11 sous-espèces suivantes :
 Accipiter trivirgatus castroi  Manuel &amp; Gilliard 1952
